--- a/medicine/Mort/Décès_en_2018/Décès_en_2018.xlsx
+++ b/medicine/Mort/Décès_en_2018/Décès_en_2018.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2018</t>
+          <t>Décès_en_2018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2018</t>
+          <t>Décès_en_2018</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-1er janvier : Manuel Olivencia, avocat, économiste et diplomate espagnol.
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier : Manuel Olivencia, avocat, économiste et diplomate espagnol.
 2 janvier :
 Jacques Lassalle, dramaturge, metteur en scène et acteur français.
 Thomas S. Monson, dirigeant religieux et écrivain américain.
@@ -575,9 +592,43 @@
 30 janvier :
 Mark Salling, acteur américain ;
 Azeglio Vicini, footballeur et entraîneur italien.
-31 janvier : Leonid Kadeniouk, astronaute ukrainien.
-Février
-1er février :
+31 janvier : Leonid Kadeniouk, astronaute ukrainien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_2018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2018</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er février :
 Dennis Edwards, chanteur américain ;
 Barys Kit, scientifique biélorusse.
 3 février : Michael Harner, anthropologue américain.
@@ -604,9 +655,43 @@
 26 février :
 João W. Nery, écrivain et activiste LGBT brésilien ;
 Folco Quilici, écrivain, réalisateur et scénariste italien.
-28 février : Pierre Milza, historien français.
-Mars
-2 mars :
+28 février : Pierre Milza, historien français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_2018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2018</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 mars :
 Jesús López Cobos, chef d'orchestre espagnol ;
 Marcel Philippot, acteur français.
 3 mars : Jean Dujardin, théologien, spécialiste du judaïsme, historien français.
@@ -618,9 +703,43 @@
 Lys Assia, chanteuse suisse et première gagnante de l'Eurovision.
 Arnaud Beltrame, officier supérieur de gendarmerie français.
 27 mars : Stéphane Audran, actrice française.
-30 mars : Christophe Salengro, acteur, danseur et metteur en scène français.
-Avril
-1er avril :
+30 mars : Christophe Salengro, acteur, danseur et metteur en scène français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_2018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2018</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er avril :
 Steven Bochco, scénariste et producteur de séries télévisées américain.
 Efraín Ríos Montt, homme d'État guatémaltèque ;
 Michel Sénéchal, ténor français.
@@ -652,9 +771,43 @@
 21 avril : Nabi Tajima, supercentenaire japonaise et doyenne de l'humanité.
 23 avril : Liri Belishova, politicienne albanaise.
 24 avril : Henri Michel, footballeur et entraîneur français.
-30 avril : Rose Laurens, chanteuse française
-Mai
-7 mai :
+30 avril : Rose Laurens, chanteuse française</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_2018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2018</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>7 mai :
 Ermanno Olmi, réalisateur italien ;
 Claudine Luypaerts, dite Maurane chanteuse et comédienne belge.
 Claude Lafleur, artiste plasticien canadien.
@@ -665,9 +818,43 @@
 27 mai : Ted Dabney, ingénieur électronicien américain, cofondateur de la société Atari.
 26 mai : Pierre Bellemare, écrivain, acteur et animateur radio français.
 27 mai : Jean Konan Banny, homme politique ivoirien.
-28 mai : Serge Dassault, homme d'affaires et homme politique français.
-Juin
-7 juin : David Douglas Duncan, photojournaliste
+28 mai : Serge Dassault, homme d'affaires et homme politique français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_2018</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2018</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>7 juin : David Douglas Duncan, photojournaliste
 8 juin : Anthony Bourdain, chef, auteur et animateur de télévision américain.
 11 juin : Yvette Horner, accordéoniste française.
 14 juin : Mongi Kooli, avocat et homme politique tunisien.
@@ -675,9 +862,43 @@
 22 juin : Vinnie Paul, batteur américain des groupes Pantera et Hellyeah.
 23 juin : Edu del Prado, chanteur, musicien, acteur et danseur espagnol.
 25 juin : David Goldblatt, photographe sud-africain.
-27 juin : Joseph Jackson, directeur artistique, patriarche des artistes de la famille Jackson.
-Juillet
-1er juillet :
+27 juin : Joseph Jackson, directeur artistique, patriarche des artistes de la famille Jackson.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_2018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2018</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juillet :
 François Corbier, chanteur, animateur du club Dorothée.
 Terence Thomas, homme politique et banquier britannique.
 5 juillet : Claude Lanzmann, écrivain, journaliste et réalisateur français.
@@ -688,9 +909,43 @@
 25 juillet : Sergio Marchionne, industriel et homme d'affaires italien naturalisé canadien.
 28 juillet : Luigi Corteggi, graphiste et illustrateur italien (° 21 juin 1933).
 27 juillet : Ousha bint Khalifa, poétesse émiratie.
-31 juillet : Jean-Yves Chatelais, comédien français pratiquant également du doublage.
-Août
-1er août :
+31 juillet : Jean-Yves Chatelais, comédien français pratiquant également du doublage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_2018</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2018</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er août :
 Mary Carlisle, actrice américaine.
 Rick Genest, mannequin canadien.
 2 août : Armand de Las Cuevas, coureur cycliste français.
@@ -768,9 +1023,43 @@
 Alexandre Zakhartchenko, Premier ministre de la République du Donetsk.
 Luigi Luca Cavalli-Sforza, généticien italien.
 Yvon Palamour, ébéniste, luthier et musicien français.
-Carole Shelley, actrice britannique.
-Septembre
-1er septembre :
+Carole Shelley, actrice britannique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_2018</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2018</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er septembre :
 Margit Sandemo, écrivaine norvégienne.
 Jean Seitlinger, personnalité politique française.
 Irving Petlin, artiste américain.
@@ -841,9 +1130,43 @@
 Jean Piat, acteur et écrivain français ;
 Robert Venturi, architecte américain.
 21 septembre : Trần Đại Quang, président du Viêt Nam.
-30 septembre : René Pétillon, auteur français de bandes dessinées.
-Octobre
-1er octobre :
+30 septembre : René Pétillon, auteur français de bandes dessinées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_2018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2018</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er octobre :
 Charles Aznavour, auteur-compositeur-interprète français.
 Marianne Mako, journaliste française
 6 octobre :
@@ -858,9 +1181,43 @@
 21 octobre: Robert Faurisson, militant révisionniste français.
 28 octobre : Philippe Gildas, journaliste, animateur de télévision et animateur de radio français.
 30 octobre : Jin Yong, auteur chinois de romans de cape et d'épée à grand succès.
-31 octobre : Roger Bootle-Wilbraham, homme politique britannique.
-Novembre
-1er novembre :
+31 octobre : Roger Bootle-Wilbraham, homme politique britannique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_2018</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2018</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er novembre :
 Theodor Hoffmann, amiral et homme politique est-allemand puis allemand.
 Carlo Giuffré, acteur italien.
 2 novembre :
@@ -894,9 +1251,43 @@
 29 novembre :
 Harue Akagi, actrice japonaise.
 Viktor Matvienko, footballeur soviétique.
-30 novembre : George H. W. Bush, homme d'État américain, 41e président des États-Unis de 1989 à 1993.
-Décembre
-1er décembre :
+30 novembre : George H. W. Bush, homme d'État américain, 41e président des États-Unis de 1989 à 1993.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_2018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2018</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er décembre :
 Maria Pacôme, actrice française.
 Perry Robinson, musicien américain.
 2 décembre :
